--- a/04.Probleme/champs_list_of_asset.xlsx
+++ b/04.Probleme/champs_list_of_asset.xlsx
@@ -1,48 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edfengroup.sharepoint.com/sites/EDFRE_DSIN_Outildegestiondesparcs-02-Conception/Shared Documents/02 - Conception/04 - Migration données/04.Probleme/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="11_44A55A5A1F40760E62355476585DCE3A8747F424" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E5D5FFE-B912-4BF6-B11C-3978F6F7A3B4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="156">
-  <si>
-    <t>Nom List of asset</t>
-  </si>
-  <si>
-    <t>Nom Bluepoint</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+  <si>
+    <t xml:space="preserve">Nom List of asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom Bluepoint</t>
   </si>
   <si>
     <t>Type</t>
@@ -54,403 +34,457 @@
     <t xml:space="preserve"> Points contractuels particuliers</t>
   </si>
   <si>
-    <t>Accompagnement des constructeurs pour les garanties</t>
-  </si>
-  <si>
-    <t>Activités liées au  DT BIRD</t>
-  </si>
-  <si>
-    <t>Activités liées au SDA</t>
-  </si>
-  <si>
-    <t>Audits sécurité</t>
-  </si>
-  <si>
-    <t>Bonus en cas d'intervention avant 4h</t>
-  </si>
-  <si>
-    <t>Calibration des pyranomètres</t>
-  </si>
-  <si>
-    <t>Changement des panneaux - coût des panneaux</t>
-  </si>
-  <si>
-    <t>Changement des panneaux</t>
-  </si>
-  <si>
-    <t>Matériel,Transport,Stockage,Main d'oeuvre</t>
-  </si>
-  <si>
-    <t>Changement des panneaux - coût des panneaux + Transport</t>
-  </si>
-  <si>
-    <t>Changement des panneaux - coût des panneaux + Transport+ stockage</t>
-  </si>
-  <si>
-    <t>Changement des panneaux - coût des panneaux+ Transport</t>
-  </si>
-  <si>
-    <t>Changement des panneaux - coût des panneaux+ transport</t>
-  </si>
-  <si>
-    <t>Changement des panneaux - coût des panneaux+Transport</t>
-  </si>
-  <si>
-    <t>Changement des panneaux - coût des panneaux+transport</t>
-  </si>
-  <si>
-    <t>Changement des panneaux - main d'œuvre</t>
-  </si>
-  <si>
-    <t>Contrôles règlementaires: Accompagnement sur site</t>
-  </si>
-  <si>
-    <t>Contrôles réglementaires: Frais bureaux de contrôle</t>
-  </si>
-  <si>
-    <t>Contrôles thermographiques</t>
-  </si>
-  <si>
-    <t>Contrôles vibratoires</t>
-  </si>
-  <si>
-    <t>Date signature contrat</t>
-  </si>
-  <si>
-    <t>Date signature du contrat</t>
-  </si>
-  <si>
-    <t>Délai d'intervention sur le PDL</t>
-  </si>
-  <si>
-    <t>Délai d'intervention sur le poste</t>
-  </si>
-  <si>
-    <t>Délai d'intervention sur le poste (MCR)</t>
-  </si>
-  <si>
-    <t>Délai d'intervention sur le PDL (MCR)</t>
-  </si>
-  <si>
-    <t>Délai d'intervention sur les éoliennes</t>
-  </si>
-  <si>
-    <t>Délais d'intervention</t>
-  </si>
-  <si>
-    <t>Demande  d'arrêt par le propiétaire</t>
-  </si>
-  <si>
-    <t>Durée du contrat</t>
-  </si>
-  <si>
-    <t>Entretien de la végétation à l'extérieur des clôtures</t>
-  </si>
-  <si>
-    <t>Entretien de la végétation à l'intérieur des clôtures</t>
-  </si>
-  <si>
-    <t>Entretien des Batiments, Pistes , Portails,intrusion animaux…</t>
-  </si>
-  <si>
-    <t>Entretien des Batiments, Pistes …</t>
-  </si>
-  <si>
-    <t>Etablissement des PDP ponctuels</t>
-  </si>
-  <si>
-    <t>Existe-t-il une extension de garantie onduleurs</t>
-  </si>
-  <si>
-    <t>Garantie onduleurs</t>
+    <t xml:space="preserve">Accompagnement des constructeurs pour les garanties</t>
+  </si>
+  <si>
+    <t>Oui/Non</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activités liées au  DT BIRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activités liées au SDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audits sécurité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonus en cas d'intervention avant 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calibration des pyranomètres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changement des panneaux - coût des panneaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changement des panneaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choix multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matériel,Transport,Stockage,Main d'oeuvre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changement des panneaux - coût des panneaux + Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changement des panneaux - coût des panneaux + Transport+ stockage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changement des panneaux - coût des panneaux+ Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changement des panneaux - coût des panneaux+ transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changement des panneaux - coût des panneaux+Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changement des panneaux - coût des panneaux+transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changement des panneaux - main d'œuvre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrôles règlementaires: Accompagnement sur site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrôles réglementaires: Frais bureaux de contrôle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrôles thermographiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrôles vibratoires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date signature contrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date signature du contrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Délai d'intervention sur le PDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Délai d'intervention sur le poste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Délai d'intervention sur le poste (MCR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Délai d'intervention sur le PDL (MCR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Délai d'intervention sur les éoliennes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Délai d'intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Délais d'intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demande  d'arrêt par le propiétaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demande d'arrêt par le propiétaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durée du contrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entretien de la végétation à l'extérieur des clôtures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entretien de la végétation à l'intérieur des clôtures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entretien des Batiments, Pistes , Portails,intrusion animaux…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entretien des Batiments, Pistes …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entretien des batiments, pistes, portails, intrusion animaux…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etablissement des PDP ponctuels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existe-t-il une extension de garantie onduleurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantie onduleurs</t>
   </si>
   <si>
     <t xml:space="preserve">Garantie de Disponibilité portée par EDF ENS </t>
   </si>
   <si>
-    <t>Disponiblié garantie par EDF RS</t>
-  </si>
-  <si>
-    <t>Garantie de Disponibilité sur les éoliennes</t>
-  </si>
-  <si>
-    <t>Garantie de PR portée par EDF ENS</t>
-  </si>
-  <si>
-    <t>Gestion des accès</t>
-  </si>
-  <si>
-    <t>Gestion des Risques des éoliennes</t>
-  </si>
-  <si>
-    <t>Gestion des Risques du poste et réseaux HTA</t>
-  </si>
-  <si>
-    <t>Inspection en plateforme et réparations de pâles</t>
-  </si>
-  <si>
-    <t>Inspection et réparations de pâles</t>
-  </si>
-  <si>
-    <t>interventions sur détecteur  oiseaux (dity bird)</t>
-  </si>
-  <si>
-    <t>Lavage des pâles</t>
-  </si>
-  <si>
-    <t>Maintenance corrective - composants hors scope</t>
-  </si>
-  <si>
-    <t>Maintenance corrective - Main d'oeuvre</t>
-  </si>
-  <si>
-    <t>Maintenance corrective - Main d'œuvre</t>
-  </si>
-  <si>
-    <t>Maintenance corrective  PDL- Main d'oeuvre</t>
+    <t xml:space="preserve">Disponiblié garantie par EDF RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantie de Disponibilité sur les éoliennes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantie de PR portée par EDF ENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR garantie par EDF RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion des accès</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion des Risques des éoliennes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion des risques </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eoliennes, PDL, Réseaux HTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion des Risques du poste et réseaux HTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspection en plateforme et réparations de pâles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspection et réparations de pales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspection et réparations de pâles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interventions sur détecteur  oiseaux (dity bird)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavage des pâles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavage des pales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance corrective - composants hors scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance corrective - Composants hors scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance corrective - Main d'oeuvre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance corrective - Main d'œuvre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forfait, Hors-forfait, Hors-contrat, ENS1, ENS2, ENS3, ENS4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance corrective  PDL- Main d'oeuvre</t>
   </si>
   <si>
     <t xml:space="preserve">Maintenance corrective PDL - Main d'œuvre </t>
   </si>
   <si>
-    <t>Maintenance corrective - Pièces</t>
-  </si>
-  <si>
-    <t>Maintenance Corrective - Pièces</t>
-  </si>
-  <si>
-    <t>Maintenance corrective - Points contractuels particuliers</t>
-  </si>
-  <si>
-    <t>Maintenance corrective éoliennes - Main d'oeuvre</t>
-  </si>
-  <si>
-    <t>Maintenance corrective éoliennes - Pièces</t>
-  </si>
-  <si>
-    <t>Maintenance corrective PDL - Main d'oeuvre</t>
-  </si>
-  <si>
-    <t>Maintenance corrective PDL - Pièces</t>
+    <t xml:space="preserve">Maintenance corrective - Pièces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance Corrective - Pièces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance corrective - Points contractuels particuliers</t>
+  </si>
+  <si>
+    <t>Texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance corrective éoliennes - Main d'oeuvre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance corrective éoliennes - Pièces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance corrective PDL - Main d'oeuvre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance corrective PDL - Pièces</t>
   </si>
   <si>
     <t xml:space="preserve">Maintenance correctives des convertisseurs </t>
   </si>
   <si>
-    <t>Maintenance correctives des convertisseurs - Pièces</t>
-  </si>
-  <si>
-    <t>Maintenance prév. - Points contractuels particuliers</t>
-  </si>
-  <si>
-    <t>Maintenance préventive</t>
+    <t xml:space="preserve">Maintenance correctives des convertisseurs - Pièces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance prév. - Points contractuels particuliers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance préventive</t>
   </si>
   <si>
     <t xml:space="preserve">Maintenance préventive </t>
   </si>
   <si>
-    <t>Maintenance préventive - Points contractuels particuliers</t>
-  </si>
-  <si>
-    <t>Maintenance préventive des éoliennes</t>
-  </si>
-  <si>
-    <t>Maintenance préventive du poste</t>
-  </si>
-  <si>
-    <t>Maintenance préventive éoliennes</t>
-  </si>
-  <si>
-    <t>Maintenance préventive éoliennes + poste HTA</t>
-  </si>
-  <si>
-    <t>Maintenance préventive PDL</t>
+    <t xml:space="preserve">Maintenance préventive - Points contractuels particuliers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance préventive des éoliennes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eoliennes, PDL, HTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance préventive du poste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance préventive éoliennes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance préventive éoliennes + poste HTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance préventive PDL</t>
   </si>
   <si>
     <t xml:space="preserve">Maintenance spécifique constructeurs </t>
   </si>
   <si>
-    <t>Maintenance spécifique constructeurs du poste</t>
-  </si>
-  <si>
-    <t>Maintenance spécifique constructeurs HTA</t>
-  </si>
-  <si>
-    <t>Maintenance spécifique constructeurs HTA (PDL + Transfos)</t>
-  </si>
-  <si>
-    <t>Major Components Replacement - Grues</t>
-  </si>
-  <si>
-    <t>Major Components Remplacement - Grues</t>
-  </si>
-  <si>
-    <t>Major Components Replacement - Main d'œuvre</t>
-  </si>
-  <si>
-    <t>Major Components Remplacement - Main d'œuvre</t>
-  </si>
-  <si>
-    <t>Major Components Replacement - Pièces</t>
-  </si>
-  <si>
-    <t>Major Components Remplacement - Pièces</t>
-  </si>
-  <si>
-    <t>Major Components Replacement - Sous-traitance</t>
-  </si>
-  <si>
-    <t>Major Components Remplacement - Sous-traitance</t>
-  </si>
-  <si>
-    <t>Mâts de mesure</t>
-  </si>
-  <si>
-    <t>Mise à jour de l'Annexe 13 du PDP annuel</t>
-  </si>
-  <si>
-    <t>Mise en conformité + levée des réserves</t>
-  </si>
-  <si>
-    <t>Mise en sécurité des installations</t>
-  </si>
-  <si>
-    <t>Obligation de moyens pour le suivi de la performance</t>
-  </si>
-  <si>
-    <t>Obligations de moyens pour le suivi de la perfomance</t>
-  </si>
-  <si>
-    <t>Penalités en cas de dépassement des délais</t>
-  </si>
-  <si>
-    <t>Penalités en cas de dépassement des délais d'intervention</t>
-  </si>
-  <si>
-    <t>Pénalités en cas de dépassement des délais</t>
-  </si>
-  <si>
-    <t>Pénalités en cas de dépassement des délais d'intervention</t>
-  </si>
-  <si>
-    <t>Pénalités en cas de dépassement des délais sur Poste HTA</t>
-  </si>
-  <si>
-    <t>Pénalités en cas de dépassement des délais sur WTG</t>
-  </si>
-  <si>
-    <t>Pièces et consommables</t>
-  </si>
-  <si>
-    <t>Plan de gestion environnement existant à respecter</t>
-  </si>
-  <si>
-    <t>Plan de gestion environnement exitant à respecter</t>
-  </si>
-  <si>
-    <t>Points réguliers (téléphone, rapport, réunions)</t>
-  </si>
-  <si>
-    <t>Prélèvements d'huile transfos</t>
-  </si>
-  <si>
-    <t>Prélèvements d'huiles transformateur</t>
-  </si>
-  <si>
-    <t>Prélèvements d'huiles transfos</t>
-  </si>
-  <si>
-    <t>Prélèvements d'huiles transfos et gearbox</t>
-  </si>
-  <si>
-    <t>Prélèvements d'huiles transfos et gearboxe</t>
-  </si>
-  <si>
-    <t>Prélèvements d'huiles transfos et multi</t>
-  </si>
-  <si>
-    <t>Prise en charge financière des rétrofits</t>
-  </si>
-  <si>
-    <t>Réapprovisionnement des Major Components</t>
-  </si>
-  <si>
-    <t>Réapprovisionnement des panneaux</t>
-  </si>
-  <si>
-    <t>Réapprovisionnement des pièces</t>
-  </si>
-  <si>
-    <t>Réapprovisionnement des pièces (hors Major Components)</t>
-  </si>
-  <si>
-    <t>Réapprovisionnement des pièces (hors panneaux)</t>
-  </si>
-  <si>
-    <t>Relation ERDF/RTE, DR/DICT</t>
-  </si>
-  <si>
-    <t>Relation ERDF/RTE, Télécom, DR/DICT, gestion accès</t>
-  </si>
-  <si>
-    <t>Relation ERDF/RTE, Télécom, DR/DICT, gestion des accès</t>
-  </si>
-  <si>
-    <t>Remplacement des câbles HTA en tranchée</t>
-  </si>
-  <si>
-    <t>Remplacement du réseau de fibres optiques</t>
-  </si>
-  <si>
-    <t>Remplacement du Transformateur auxiliaire</t>
-  </si>
-  <si>
-    <t>Remplacement du Transformateur HTA</t>
-  </si>
-  <si>
-    <t>Remplacement du Transformateur HTB</t>
-  </si>
-  <si>
-    <t>Réseaux enterrés HT et fibre optique</t>
-  </si>
-  <si>
-    <t>Suite à une alarme sur le PDL</t>
-  </si>
-  <si>
-    <t>Suite à une alarme sur les onduleurs</t>
-  </si>
-  <si>
-    <t>Supervision, téléconduite</t>
-  </si>
-  <si>
-    <t>Supervision, téléconduite et suivi de la performance</t>
-  </si>
-  <si>
-    <t>Supervision, téléconduite, télécom et suivi de la performance</t>
-  </si>
-  <si>
-    <t>Sur le reste de la centrale</t>
+    <t xml:space="preserve">Maintenance spécifique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constructeurs, PDL, HTA, Transfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance spécifique constructeurs du poste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance spécifique constructeurs HTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance spécifique constructeurs HTA (PDL + Transfos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Components Replacement - Grues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Components Remplacement - Grues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Components Replacement - Main d'œuvre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Components Remplacement - Main d'œuvre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Components Replacement - Pièces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Components Remplacement - Pièces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Components Replacement - Sous-traitance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Components Remplacement - Sous-traitance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mâts de mesure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise à jour de l'Annexe 13 du PDP annuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en conformité + levée des réserves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en sécurité des installations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obligation de moyens pour le suivi de la performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obligations de moyens pour le suivi de la perfomance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penalités en cas de dépassement des délais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penalités en cas de dépassement des délais d'intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pénalités en cas de dépassement des délais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pénalités en cas de dépassement des délais d'intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pénalités en cas de dépassement des délais sur Poste HTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pénalités en cas de dépassement des délais sur WTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pièces et consommables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan de gestion environnement existant à respecter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan de gestion environnement exitant à respecter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Points réguliers (téléphone, rapport, réunions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prélèvements d'huile transfos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prélèvements d'huiles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfos,gearbox,multi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prélèvements d'huiles transformateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prélèvements d'huiles transfos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prélèvements d'huiles transfos et gearbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prélèvements d'huiles transfos et gearboxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prélèvements d'huiles transfos et multi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prise en charge financière des rétrofits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réapprovisionnement des Major Components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réapprovisionnement des panneaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réapprovisionnement des pièces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réapprovisionnement des pièces (hors Major Components)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réapprovisionnement des pièces (hors panneaux)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relation ERDF/RTE, DR/DICT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relation ERDF/RTE, Télécom, DR/DICT, gestion accès</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relation ERDF/RTE, Télécom, DR/DICT, gestion des accès</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplacement des câbles HTA en tranchée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplacement du réseau de fibres optiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplacement du Transformateur auxiliaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplacement du Transformateur HTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplacement du Transformateur HTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réseaux enterrés HT et fibre optique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suite à une alarme sur le PDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suite à une alarme sur les onduleurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervision, téléconduite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervision, téléconduite, télécom et suivi de la performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervision, téléconduite et suivi de la performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sur le reste de la centrale</t>
   </si>
   <si>
     <t xml:space="preserve">Travaux et réparations </t>
   </si>
   <si>
-    <t>Type de stock initial de Major Components</t>
-  </si>
-  <si>
-    <t>Type de stock initial de pièces</t>
-  </si>
-  <si>
-    <t>Type de stock initial de pièces (hors Major Components)</t>
-  </si>
-  <si>
-    <t>Type de stock initial de pièces (hors panneaux)</t>
-  </si>
-  <si>
-    <t>Type de stock initial des panneaux</t>
-  </si>
-  <si>
-    <t>Vidanges d'huile de gearbox</t>
+    <t xml:space="preserve">Type de stock initial de Major Components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type de stock initial de pièces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type de stock initial de pièces (hors Major Components)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type de stock initial de pièces (hors panneaux)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type de stock initial des panneaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vidanges d'huile de gearbox</t>
   </si>
   <si>
     <t>Vidéo-endoscopies</t>
@@ -459,69 +493,41 @@
     <t>Vidéosurveillance</t>
   </si>
   <si>
-    <t>Visite d'inspection commune et PDP annuel</t>
-  </si>
-  <si>
-    <t>Voies d'accès et génie civil</t>
-  </si>
-  <si>
-    <t>Voies d'accès, plateformes, talus et fondations</t>
-  </si>
-  <si>
-    <t>Voies d'accès, plateformes, talus et fondations, végétation</t>
-  </si>
-  <si>
-    <t>Y-a-t'il des Bonus/pénalités associés</t>
-  </si>
-  <si>
-    <t>Y-a-t'il une annexe du programme de maintenance</t>
-  </si>
-  <si>
-    <t>Y-a-t'il une garantie de dispo. portée par SMA ou Schneider</t>
-  </si>
-  <si>
-    <t>Délai d'intervention</t>
-  </si>
-  <si>
-    <t>PR garantie par EDF RS</t>
-  </si>
-  <si>
-    <t>Eoliennes, PDL, Réseaux HTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion des risques </t>
-  </si>
-  <si>
-    <t>Eoliennes, PDL, HTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance spécifique </t>
-  </si>
-  <si>
-    <t>Constructeurs, PDL, HTA, Transfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prélèvements d'huiles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfos,gearbox,multi </t>
+    <t xml:space="preserve">Visite d'inspection commune et PDP annuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voies d'accès et génie civil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voies d'accès, plateformes, talus et fondations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voies d'accès, plateformes, talus et fondations, végétation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y-a-t'il des Bonus/pénalités associés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y-a-t'il une annexe du programme de maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y-a-t'il une garantie de dispo. portée par SMA ou Schneider</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -535,11 +541,11 @@
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -554,35 +560,36 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -628,13 +635,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -662,13 +669,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -865,24 +872,232 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B100" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView topLeftCell="B4" zoomScale="100" workbookViewId="0">
+      <selection activeCell="C128" activeCellId="0" sqref="C128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" customWidth="1"/>
+    <col customWidth="1" hidden="1" min="1" max="1" width="0"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="64.42578125"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="50.5703125"/>
+    <col customWidth="1" min="4" max="4" width="14.140625"/>
+    <col customWidth="1" min="5" max="5" width="45.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,7 +1111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1">
         <v>45</v>
       </c>
@@ -904,7 +1119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="1">
         <v>57</v>
       </c>
@@ -914,1535 +1129,1750 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1">
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1">
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1">
         <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1">
         <v>60</v>
       </c>
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11">
       <c r="A11" s="1">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1">
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="1">
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1">
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="1">
         <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1">
         <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="1">
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="1">
         <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="1">
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="1">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="1">
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="1">
         <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="1">
         <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="1">
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="1">
         <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="1">
         <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="1">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="1">
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="1">
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="1">
         <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="1">
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="1">
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="1">
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="1">
         <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="1">
         <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="1">
         <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="1">
         <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="1">
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="1">
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="1">
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="1">
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="1">
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="1">
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="1">
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="1">
         <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="1">
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="1">
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="1">
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="1">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="1">
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="1">
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51"/>
+    </row>
+    <row r="52">
       <c r="A52" s="1">
         <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="1">
         <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="1">
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="1">
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="1">
         <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="1">
         <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="1">
         <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58"/>
+    </row>
+    <row r="59">
       <c r="A59" s="1">
         <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="1">
         <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" s="1">
         <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="D61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" s="1">
         <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>82</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" s="1">
         <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>82</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" s="1">
         <v>37</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>82</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" s="1">
         <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>82</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" s="1">
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>82</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" s="1">
         <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>91</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" s="1">
         <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>91</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" s="1">
         <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s">
-        <v>152</v>
+        <v>91</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E69" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" s="1">
         <v>37</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>91</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" s="1">
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" s="1">
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" s="1">
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" s="1">
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" s="1">
         <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" s="1">
         <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" s="1">
         <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" s="1">
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" s="1">
         <v>18</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" s="1">
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" s="1">
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" s="1">
         <v>74</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" s="1">
         <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" s="1">
         <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" s="1">
         <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" s="1">
         <v>36</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87" s="1">
         <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88" s="1">
         <v>42</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89" s="1">
         <v>29</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90" s="1">
         <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C90" t="s">
-        <v>154</v>
+        <v>121</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91" s="1">
         <v>55</v>
       </c>
       <c r="B91" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C91" t="s">
-        <v>154</v>
+        <v>121</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92" s="1">
         <v>51</v>
       </c>
       <c r="B92" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>154</v>
+        <v>121</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93" s="1">
         <v>65</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C93" t="s">
-        <v>154</v>
+        <v>121</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="A94" s="1">
         <v>65</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C94" t="s">
-        <v>154</v>
+        <v>121</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95" s="1">
         <v>64</v>
       </c>
       <c r="B95" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C95" t="s">
-        <v>154</v>
+        <v>121</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E95" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96" s="1">
         <v>59</v>
       </c>
       <c r="B96" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="A97" s="1">
         <v>89</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="A98" s="1">
         <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99">
       <c r="A99" s="1">
         <v>67</v>
       </c>
       <c r="B99" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100">
       <c r="A100" s="1">
         <v>87</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101">
       <c r="A101" s="1">
         <v>72</v>
       </c>
       <c r="B101" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102">
       <c r="A102" s="1">
         <v>18</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103">
       <c r="A103" s="1">
         <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104">
       <c r="A104" s="1">
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105">
       <c r="A105" s="1">
         <v>54</v>
       </c>
       <c r="B105" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106">
       <c r="A106" s="1">
         <v>55</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107">
       <c r="A107" s="1">
         <v>67</v>
       </c>
       <c r="B107" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108">
       <c r="A108" s="1">
         <v>66</v>
       </c>
       <c r="B108" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109">
       <c r="A109" s="1">
         <v>52</v>
       </c>
       <c r="B109" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110">
       <c r="A110" s="1">
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111">
       <c r="A111" s="1">
         <v>80</v>
       </c>
       <c r="B111" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112">
       <c r="A112" s="1">
         <v>81</v>
       </c>
       <c r="B112" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113">
       <c r="A113" s="1">
         <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114">
       <c r="A114" s="1">
         <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C114" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115">
       <c r="A115" s="1">
         <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116">
       <c r="A116" s="1">
         <v>82</v>
       </c>
       <c r="B116" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117">
       <c r="A117" s="1">
         <v>81</v>
       </c>
       <c r="B117" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="C117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118">
       <c r="A118" s="1">
         <v>88</v>
       </c>
       <c r="B118" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119">
       <c r="A119" s="1">
         <v>66</v>
       </c>
       <c r="B119" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C119" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120">
       <c r="A120" s="1">
         <v>86</v>
       </c>
       <c r="B120" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C120" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121">
       <c r="A121" s="1">
         <v>71</v>
       </c>
       <c r="B121" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C121" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122">
       <c r="A122" s="1">
         <v>73</v>
       </c>
       <c r="B122" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C122" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123">
       <c r="A123" s="1">
         <v>50</v>
       </c>
       <c r="B123" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C123" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124">
       <c r="A124" s="1">
         <v>51</v>
       </c>
       <c r="B124" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C124" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
       <c r="A125" s="1">
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="D125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
       <c r="A126" s="1">
         <v>22</v>
       </c>
       <c r="B126" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C126" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
       <c r="A127" s="1">
         <v>43</v>
       </c>
       <c r="B127" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
       <c r="A128" s="1">
         <v>45</v>
       </c>
       <c r="B128" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C128" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
       <c r="A129" s="1">
         <v>42</v>
       </c>
       <c r="B129" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C129" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="D129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
       <c r="A130" s="1">
         <v>102</v>
       </c>
       <c r="B130" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C130" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
       <c r="A131" s="1">
         <v>38</v>
       </c>
       <c r="B131" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C131" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
       <c r="A132" s="1">
         <v>91</v>
       </c>
       <c r="B132" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C132" t="s">
-        <v>146</v>
+        <v>164</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B132" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B132">
-      <sortCondition ref="B1:B132"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="B1:E1"/>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="737540b7-7beb-44e9-ac50-e0c53972ff5f">
-      <UserInfo>
-        <DisplayName>Emmanuelle ROGER</DisplayName>
-        <AccountId>63</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7bb0b83e-420c-4a8a-8b8d-6814ce313c87">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A2D786DD4615AD4C929867322DAD61A4" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="8a4b7266a4bb969b443a658d01bb7174">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7bb0b83e-420c-4a8a-8b8d-6814ce313c87" xmlns:ns3="737540b7-7beb-44e9-ac50-e0c53972ff5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b0685874f74f8bed09a42a659eb7eeb" ns2:_="" ns3:_="">
     <xsd:import namespace="7bb0b83e-420c-4a8a-8b8d-6814ce313c87"/>
@@ -2641,10 +3071,47 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="737540b7-7beb-44e9-ac50-e0c53972ff5f">
+      <UserInfo>
+        <DisplayName>Emmanuelle ROGER</DisplayName>
+        <AccountId>63</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7bb0b83e-420c-4a8a-8b8d-6814ce313c87">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAE3F3B-BB4D-448E-A45C-4DFAA3C5C757}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF02C9E-6300-4B08-8CBE-E863C67C7D53}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7bb0b83e-420c-4a8a-8b8d-6814ce313c87"/>
+    <ds:schemaRef ds:uri="737540b7-7beb-44e9-ac50-e0c53972ff5f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2667,20 +3134,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF02C9E-6300-4B08-8CBE-E863C67C7D53}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAE3F3B-BB4D-448E-A45C-4DFAA3C5C757}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7bb0b83e-420c-4a8a-8b8d-6814ce313c87"/>
-    <ds:schemaRef ds:uri="737540b7-7beb-44e9-ac50-e0c53972ff5f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>